--- a/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
+++ b/05-Diğer/Sunum Dokumanlar/BEP Study/IZU_ALL_DB_LA_ERY_ToDoList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Desktop\ERAY\! Kişisel Belgeler\BIM_Project_Local\05-Diğer\Sunum Dokumanlar\BEP Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eray.uzun\Dropbox\BIM_Local_99-KISISEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA1B60-2E02-44E9-8681-A684FC2EEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075EE62-5AD7-4FDA-AE2D-0772A5335DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1605" yWindow="-14400" windowWidth="15570" windowHeight="11055" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4472,7 +4472,7 @@
   <dimension ref="B5:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
